--- a/google_search.xlsx
+++ b/google_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mouslydiaw/Desktop/google_crawler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6008AA5-DCC6-504A-BAD1-D7AC6C48B9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABA2751-6109-0B4C-BD35-32869D29E93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google search" sheetId="2" r:id="rId1"/>
@@ -104,8 +104,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,8 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -447,10 +458,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
